--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppa-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppa-Npr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08275166666666668</v>
+        <v>0.051938</v>
       </c>
       <c r="H2">
-        <v>0.248255</v>
+        <v>0.155814</v>
       </c>
       <c r="I2">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="J2">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.746472333333333</v>
+        <v>19.523753</v>
       </c>
       <c r="N2">
-        <v>23.239417</v>
+        <v>58.571259</v>
       </c>
       <c r="O2">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="P2">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="Q2">
-        <v>0.6410334963705556</v>
+        <v>1.014024683314</v>
       </c>
       <c r="R2">
-        <v>5.769301467335</v>
+        <v>9.126222149826001</v>
       </c>
       <c r="S2">
-        <v>0.04483889445180254</v>
+        <v>0.05457091970880278</v>
       </c>
       <c r="T2">
-        <v>0.04483889445180254</v>
+        <v>0.05457091970880278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08275166666666668</v>
+        <v>0.051938</v>
       </c>
       <c r="H3">
-        <v>0.248255</v>
+        <v>0.155814</v>
       </c>
       <c r="I3">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="J3">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>57.518902</v>
       </c>
       <c r="O3">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="P3">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="Q3">
-        <v>1.586595001778889</v>
+        <v>0.9958055773586667</v>
       </c>
       <c r="R3">
-        <v>14.27935501601</v>
+        <v>8.962250196228</v>
       </c>
       <c r="S3">
-        <v>0.11097885871068</v>
+        <v>0.05359043729588424</v>
       </c>
       <c r="T3">
-        <v>0.11097885871068</v>
+        <v>0.05359043729588425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08275166666666668</v>
+        <v>0.051938</v>
       </c>
       <c r="H4">
-        <v>0.248255</v>
+        <v>0.155814</v>
       </c>
       <c r="I4">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="J4">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.791079</v>
       </c>
       <c r="O4">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="P4">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="Q4">
-        <v>0.2700760352383334</v>
+        <v>0.169509687034</v>
       </c>
       <c r="R4">
-        <v>2.430684317145</v>
+        <v>1.525587183306</v>
       </c>
       <c r="S4">
-        <v>0.01889122940778852</v>
+        <v>0.009122361292789437</v>
       </c>
       <c r="T4">
-        <v>0.01889122940778852</v>
+        <v>0.009122361292789437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.7273350000000001</v>
       </c>
       <c r="I5">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="J5">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.746472333333333</v>
+        <v>19.523753</v>
       </c>
       <c r="N5">
-        <v>23.239417</v>
+        <v>58.571259</v>
       </c>
       <c r="O5">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="P5">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="Q5">
-        <v>1.878093484855</v>
+        <v>4.733436296085</v>
       </c>
       <c r="R5">
-        <v>16.902841363695</v>
+        <v>42.60092666476501</v>
       </c>
       <c r="S5">
-        <v>0.1313685416048088</v>
+        <v>0.2547353889021658</v>
       </c>
       <c r="T5">
-        <v>0.1313685416048088</v>
+        <v>0.2547353889021659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.7273350000000001</v>
       </c>
       <c r="I6">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="J6">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>57.518902</v>
       </c>
       <c r="O6">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="P6">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="Q6">
         <v>4.64839006513</v>
@@ -818,10 +818,10 @@
         <v>41.83551058617</v>
       </c>
       <c r="S6">
-        <v>0.3251447431082251</v>
+        <v>0.250158526901318</v>
       </c>
       <c r="T6">
-        <v>0.3251447431082251</v>
+        <v>0.2501585269013181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.7273350000000001</v>
       </c>
       <c r="I7">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="J7">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.791079</v>
       </c>
       <c r="O7">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="P7">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="Q7">
         <v>0.7912660493850001</v>
@@ -880,10 +880,10 @@
         <v>7.121394444465</v>
       </c>
       <c r="S7">
-        <v>0.05534733375486439</v>
+        <v>0.04258290430186637</v>
       </c>
       <c r="T7">
-        <v>0.05534733375486439</v>
+        <v>0.04258290430186637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.445373</v>
       </c>
       <c r="I8">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="J8">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>7.746472333333333</v>
+        <v>19.523753</v>
       </c>
       <c r="N8">
-        <v>23.239417</v>
+        <v>58.571259</v>
       </c>
       <c r="O8">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="P8">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="Q8">
-        <v>1.150023207504555</v>
+        <v>2.898450814956333</v>
       </c>
       <c r="R8">
-        <v>10.350208867541</v>
+        <v>26.086057334607</v>
       </c>
       <c r="S8">
-        <v>0.08044161422200016</v>
+        <v>0.155983507409274</v>
       </c>
       <c r="T8">
-        <v>0.08044161422200016</v>
+        <v>0.155983507409274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.445373</v>
       </c>
       <c r="I9">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="J9">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>57.518902</v>
       </c>
       <c r="O9">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="P9">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="Q9">
         <v>2.846373993382889</v>
@@ -1004,10 +1004,10 @@
         <v>25.617365940446</v>
       </c>
       <c r="S9">
-        <v>0.1990976505631373</v>
+        <v>0.1531809325848759</v>
       </c>
       <c r="T9">
-        <v>0.1990976505631373</v>
+        <v>0.1531809325848759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.445373</v>
       </c>
       <c r="I10">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="J10">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>9.791079</v>
       </c>
       <c r="O10">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="P10">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="Q10">
-        <v>0.4845202474963333</v>
+        <v>0.4845202474963334</v>
       </c>
       <c r="R10">
-        <v>4.360682227467</v>
+        <v>4.360682227467001</v>
       </c>
       <c r="S10">
-        <v>0.0338911341766933</v>
+        <v>0.02607502160302354</v>
       </c>
       <c r="T10">
-        <v>0.0338911341766933</v>
+        <v>0.02607502160302354</v>
       </c>
     </row>
   </sheetData>
